--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1113.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1113.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9908706178798729</v>
+        <v>1.17287266254425</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.388129949569702</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.857657152276575</v>
+        <v>2.367826700210571</v>
       </c>
       <c r="E1">
-        <v>1.265341555189947</v>
+        <v>1.20968770980835</v>
       </c>
     </row>
   </sheetData>
